--- a/lib/Unishox-1.0-shadinger/generator/remapping.xlsx
+++ b/lib/Unishox-1.0-shadinger/generator/remapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadinger/Tasmota/s-hadinger/Tasmota/lib/Unishox-1.0-shadinger/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58577CA5-6BCA-A24D-B284-178A5A025FAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70561013-F061-9342-9B95-C1D6C92E4F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="7660" windowWidth="28040" windowHeight="17440" xr2:uid="{A3267BD4-1DCB-3146-88CE-47B8ED13CB73}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>dist</t>
   </si>
   <si>
-    <t>lf</t>
-  </si>
-  <si>
     <t>rpt</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Remapped</t>
+  </si>
+  <si>
+    <t>LF</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,11 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,7 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,167 +697,169 @@
   <dimension ref="B2:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="P27" sqref="P27:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>110</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>11100</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>11101</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>11110</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>11111</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>10</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>110</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>11100</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>11101</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>11110</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>11111</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>78</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -869,19 +871,19 @@
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>78</v>
+      <c r="M7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -893,34 +895,34 @@
       <c r="R7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="S7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="M8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>79</v>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -937,14 +939,14 @@
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>79</v>
+      <c r="M9" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>13</v>
@@ -961,34 +963,34 @@
       <c r="R9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="S9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="M10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>80</v>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1011,8 +1013,8 @@
       <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>80</v>
+      <c r="M11" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>19</v>
@@ -1036,8 +1038,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+    <row r="12" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1045,7 +1047,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1055,10 +1057,10 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>100</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1076,13 +1078,13 @@
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="I13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="3">
         <v>100</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -1100,30 +1102,30 @@
       <c r="S13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>84</v>
+      <c r="T13" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>1010</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1138,16 +1140,16 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="3">
         <v>1010</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -1162,36 +1164,36 @@
       <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>87</v>
+      <c r="R15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="M16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>1011</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1213,9 +1215,9 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="1">
+        <v>87</v>
+      </c>
+      <c r="M17" s="3">
         <v>1011</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -1237,11 +1239,11 @@
         <v>40</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1249,7 +1251,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1259,7 +1261,7 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>1100</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1283,7 +1285,7 @@
       <c r="I19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="3">
         <v>1100</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -1309,7 +1311,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1317,7 +1319,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1327,7 +1329,7 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>1101</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1351,7 +1353,7 @@
       <c r="I21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="3">
         <v>1101</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -1377,7 +1379,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1385,7 +1387,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1395,7 +1397,7 @@
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>1110</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1404,7 +1406,7 @@
       <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="2">
@@ -1419,7 +1421,7 @@
       <c r="I23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="3">
         <v>1110</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -1428,8 +1430,8 @@
       <c r="O23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>75</v>
+      <c r="P23" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="Q23" s="2">
         <v>6</v>
@@ -1445,25 +1447,25 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>11110</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1472,7 +1474,7 @@
       <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="2">
@@ -1487,7 +1489,7 @@
       <c r="I25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="3">
         <v>11110</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -1496,8 +1498,8 @@
       <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>76</v>
+      <c r="P25" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="Q25" s="2">
         <v>7</v>
@@ -1513,25 +1515,25 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>11111</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1546,7 +1548,7 @@
       <c r="F27" s="2">
         <v>8</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1555,7 +1557,7 @@
       <c r="I27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="3">
         <v>11111</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -1570,8 +1572,8 @@
       <c r="Q27" s="2">
         <v>8</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>81</v>
+      <c r="R27" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>69</v>
@@ -1581,25 +1583,209 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="4"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
     <mergeCell ref="S27:S28"/>
     <mergeCell ref="T27:T28"/>
     <mergeCell ref="M27:M28"/>
@@ -1624,190 +1810,6 @@
     <mergeCell ref="P23:P24"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/Unishox-1.0-shadinger/generator/remapping.xlsx
+++ b/lib/Unishox-1.0-shadinger/generator/remapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadinger/Tasmota/s-hadinger/Tasmota/lib/Unishox-1.0-shadinger/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70561013-F061-9342-9B95-C1D6C92E4F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9BB264-4FB4-3743-9984-6C4D640EFCB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="7660" windowWidth="28040" windowHeight="17440" xr2:uid="{A3267BD4-1DCB-3146-88CE-47B8ED13CB73}"/>
+    <workbookView xWindow="520" yWindow="7660" windowWidth="28040" windowHeight="17440" xr2:uid="{A3267BD4-1DCB-3146-88CE-47B8ED13CB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +333,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,22 +371,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +705,7 @@
   <dimension ref="B2:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:P28"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,963 +723,1072 @@
       <c r="M2" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>3</v>
+      </c>
+      <c r="R2" s="7">
+        <v>4</v>
+      </c>
+      <c r="S2" s="7">
+        <v>5</v>
+      </c>
+      <c r="T2" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>110</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>11100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>11101</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>11110</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>11111</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>110</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>11100</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>11101</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>11110</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>11111</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="5">
         <v>9</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>100</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="3">
+      <c r="L13" s="7">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
         <v>100</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="5">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1010</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="3">
+      <c r="L15" s="7">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
         <v>1010</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="5">
         <v>2</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1011</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="3">
+      <c r="L17" s="7">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2">
         <v>1011</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="5">
         <v>3</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1100</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>4</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="3">
+      <c r="L19" s="7">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2">
         <v>1100</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="5">
         <v>4</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1101</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="3">
+      <c r="L21" s="7">
+        <v>7</v>
+      </c>
+      <c r="M21" s="2">
         <v>1101</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="5">
         <v>5</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1110</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>6</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="3">
+      <c r="L23" s="7">
+        <v>8</v>
+      </c>
+      <c r="M23" s="2">
         <v>1110</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="5">
         <v>6</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>11110</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>7</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="3">
+      <c r="L25" s="7">
+        <v>9</v>
+      </c>
+      <c r="M25" s="2">
         <v>11110</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="5">
         <v>7</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>11111</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="3">
+      <c r="L27" s="7">
+        <v>10</v>
+      </c>
+      <c r="M27" s="2">
         <v>11111</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="5">
         <v>8</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -1696,120 +1813,76 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
